--- a/intern/avago_simba/simba_eye_diagram_variation.xlsx
+++ b/intern/avago_simba/simba_eye_diagram_variation.xlsx
@@ -104,7 +104,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +131,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -140,7 +147,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -205,9 +212,108 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color theme="9"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top style="medium">
         <color theme="1"/>
@@ -218,7 +324,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color theme="9"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -227,7 +333,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color theme="9"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
@@ -236,50 +342,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="9"/>
-      </left>
-      <right style="thin">
-        <color theme="9"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="9"/>
-      </left>
-      <right style="thin">
-        <color theme="9"/>
-      </right>
-      <top style="thin">
-        <color theme="9"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
-      <right style="thin">
-        <color theme="9"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="9"/>
-      </left>
       <right style="thin">
         <color theme="9"/>
       </right>
@@ -299,63 +362,77 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="9"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color theme="9"/>
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color theme="9"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -658,7 +735,7 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -671,30 +748,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="6"/>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8"/>
+      <c r="A2" s="20"/>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
@@ -733,49 +810,49 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="10">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10">
-        <v>0</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="B3" s="8">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
         <v>152</v>
       </c>
-      <c r="F3" s="10">
-        <v>9</v>
-      </c>
-      <c r="G3" s="10">
-        <v>15</v>
-      </c>
-      <c r="H3" s="10">
-        <v>7</v>
-      </c>
-      <c r="I3" s="10">
-        <v>2</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="10" t="s">
+      <c r="F3" s="4">
+        <v>9</v>
+      </c>
+      <c r="G3" s="4">
+        <v>15</v>
+      </c>
+      <c r="H3" s="4">
+        <v>7</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="4">
         <v>264</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="4">
         <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="9">
         <v>0</v>
       </c>
       <c r="C4" s="3">
@@ -813,8 +890,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="3">
+      <c r="A5" s="14"/>
+      <c r="B5" s="9">
         <v>0</v>
       </c>
       <c r="C5" s="3">
@@ -852,8 +929,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="9">
         <v>0</v>
       </c>
       <c r="C6" s="3">
@@ -891,8 +968,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="9">
         <v>0</v>
       </c>
       <c r="C7" s="3">
@@ -930,8 +1007,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="9">
         <v>0</v>
       </c>
       <c r="C8" s="3">
@@ -969,8 +1046,8 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="9">
         <v>0</v>
       </c>
       <c r="C9" s="3">
@@ -1008,8 +1085,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="9">
         <v>0</v>
       </c>
       <c r="C10" s="3">
@@ -1047,8 +1124,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="9">
         <v>0</v>
       </c>
       <c r="C11" s="3">
@@ -1086,88 +1163,88 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="9"/>
-      <c r="B12" s="11">
-        <v>0</v>
-      </c>
-      <c r="C12" s="11">
-        <v>0</v>
-      </c>
-      <c r="D12" s="11">
-        <v>0</v>
-      </c>
-      <c r="E12" s="11">
+      <c r="A12" s="18"/>
+      <c r="B12" s="10">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
         <v>152</v>
       </c>
-      <c r="F12" s="11">
-        <v>9</v>
-      </c>
-      <c r="G12" s="11">
-        <v>15</v>
-      </c>
-      <c r="H12" s="11">
-        <v>7</v>
-      </c>
-      <c r="I12" s="11">
-        <v>2</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" s="11" t="s">
+      <c r="F12" s="5">
+        <v>9</v>
+      </c>
+      <c r="G12" s="5">
+        <v>15</v>
+      </c>
+      <c r="H12" s="5">
+        <v>7</v>
+      </c>
+      <c r="I12" s="5">
+        <v>2</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="5">
         <v>259</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="5">
         <v>497</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="10">
-        <v>0</v>
-      </c>
-      <c r="C13" s="10">
-        <v>0</v>
-      </c>
-      <c r="D13" s="10">
-        <v>0</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="B13" s="8">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
         <v>165</v>
       </c>
-      <c r="F13" s="10">
-        <v>9</v>
-      </c>
-      <c r="G13" s="10">
-        <v>15</v>
-      </c>
-      <c r="H13" s="10">
-        <v>7</v>
-      </c>
-      <c r="I13" s="10">
-        <v>2</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="K13" s="10" t="s">
+      <c r="F13" s="4">
+        <v>9</v>
+      </c>
+      <c r="G13" s="4">
+        <v>15</v>
+      </c>
+      <c r="H13" s="4">
+        <v>7</v>
+      </c>
+      <c r="I13" s="4">
+        <v>2</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="4">
         <v>287</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M13" s="4">
         <v>533</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="9">
         <v>0</v>
       </c>
       <c r="C14" s="3">
@@ -1205,8 +1282,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="9">
         <v>0</v>
       </c>
       <c r="C15" s="3">
@@ -1244,8 +1321,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="9">
         <v>0</v>
       </c>
       <c r="C16" s="3">
@@ -1283,8 +1360,8 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="9">
         <v>0</v>
       </c>
       <c r="C17" s="3">
@@ -1322,8 +1399,8 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="3">
+      <c r="A18" s="14"/>
+      <c r="B18" s="9">
         <v>0</v>
       </c>
       <c r="C18" s="3">
@@ -1361,8 +1438,8 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="9">
         <v>0</v>
       </c>
       <c r="C19" s="3">
@@ -1400,8 +1477,8 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="9">
         <v>0</v>
       </c>
       <c r="C20" s="3">
@@ -1439,8 +1516,8 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="3">
+      <c r="A21" s="14"/>
+      <c r="B21" s="9">
         <v>0</v>
       </c>
       <c r="C21" s="3">
@@ -1478,88 +1555,88 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="9"/>
-      <c r="B22" s="11">
-        <v>0</v>
-      </c>
-      <c r="C22" s="11">
-        <v>0</v>
-      </c>
-      <c r="D22" s="11">
-        <v>0</v>
-      </c>
-      <c r="E22" s="11">
+      <c r="A22" s="18"/>
+      <c r="B22" s="10">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
         <v>165</v>
       </c>
-      <c r="F22" s="11">
-        <v>9</v>
-      </c>
-      <c r="G22" s="11">
-        <v>15</v>
-      </c>
-      <c r="H22" s="11">
-        <v>7</v>
-      </c>
-      <c r="I22" s="11">
-        <v>2</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="K22" s="11" t="s">
+      <c r="F22" s="5">
+        <v>9</v>
+      </c>
+      <c r="G22" s="5">
+        <v>15</v>
+      </c>
+      <c r="H22" s="5">
+        <v>7</v>
+      </c>
+      <c r="I22" s="5">
+        <v>2</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="5">
         <v>288</v>
       </c>
-      <c r="M22" s="11">
+      <c r="M22" s="5">
         <v>530</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="10">
-        <v>0</v>
-      </c>
-      <c r="C23" s="10">
-        <v>0</v>
-      </c>
-      <c r="D23" s="10">
-        <v>0</v>
-      </c>
-      <c r="E23" s="10">
+      <c r="B23" s="8">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
         <v>151</v>
       </c>
-      <c r="F23" s="10">
-        <v>9</v>
-      </c>
-      <c r="G23" s="10">
-        <v>15</v>
-      </c>
-      <c r="H23" s="10">
-        <v>7</v>
-      </c>
-      <c r="I23" s="10">
-        <v>2</v>
-      </c>
-      <c r="J23" s="10" t="s">
+      <c r="F23" s="4">
+        <v>9</v>
+      </c>
+      <c r="G23" s="4">
+        <v>15</v>
+      </c>
+      <c r="H23" s="4">
+        <v>7</v>
+      </c>
+      <c r="I23" s="4">
+        <v>2</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="K23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="4">
         <v>271</v>
       </c>
-      <c r="M23" s="10">
+      <c r="M23" s="4">
         <v>545</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="3">
+      <c r="A24" s="14"/>
+      <c r="B24" s="9">
         <v>0</v>
       </c>
       <c r="C24" s="3">
@@ -1597,8 +1674,8 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="3">
+      <c r="A25" s="14"/>
+      <c r="B25" s="9">
         <v>0</v>
       </c>
       <c r="C25" s="3">
@@ -1636,8 +1713,8 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="3">
+      <c r="A26" s="14"/>
+      <c r="B26" s="9">
         <v>0</v>
       </c>
       <c r="C26" s="3">
@@ -1675,8 +1752,8 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="3">
+      <c r="A27" s="14"/>
+      <c r="B27" s="9">
         <v>0</v>
       </c>
       <c r="C27" s="3">
@@ -1714,8 +1791,8 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="3">
+      <c r="A28" s="14"/>
+      <c r="B28" s="9">
         <v>0</v>
       </c>
       <c r="C28" s="3">
@@ -1753,8 +1830,8 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="3">
+      <c r="A29" s="14"/>
+      <c r="B29" s="9">
         <v>0</v>
       </c>
       <c r="C29" s="3">
@@ -1792,8 +1869,8 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="3">
+      <c r="A30" s="14"/>
+      <c r="B30" s="9">
         <v>0</v>
       </c>
       <c r="C30" s="3">
@@ -1831,8 +1908,8 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="3">
+      <c r="A31" s="14"/>
+      <c r="B31" s="9">
         <v>0</v>
       </c>
       <c r="C31" s="3">
@@ -1870,88 +1947,88 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13">
-        <v>0</v>
-      </c>
-      <c r="C32" s="13">
-        <v>0</v>
-      </c>
-      <c r="D32" s="13">
-        <v>0</v>
-      </c>
-      <c r="E32" s="13">
+      <c r="A32" s="15"/>
+      <c r="B32" s="11">
+        <v>0</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6">
         <v>151</v>
       </c>
-      <c r="F32" s="13">
-        <v>9</v>
-      </c>
-      <c r="G32" s="13">
-        <v>15</v>
-      </c>
-      <c r="H32" s="13">
-        <v>7</v>
-      </c>
-      <c r="I32" s="13">
-        <v>2</v>
-      </c>
-      <c r="J32" s="13" t="s">
+      <c r="F32" s="6">
+        <v>9</v>
+      </c>
+      <c r="G32" s="6">
+        <v>15</v>
+      </c>
+      <c r="H32" s="6">
+        <v>7</v>
+      </c>
+      <c r="I32" s="6">
+        <v>2</v>
+      </c>
+      <c r="J32" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="13" t="s">
+      <c r="K32" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L32" s="13">
+      <c r="L32" s="6">
         <v>277</v>
       </c>
-      <c r="M32" s="13">
+      <c r="M32" s="6">
         <v>545</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="15">
-        <v>0</v>
-      </c>
-      <c r="C33" s="15">
-        <v>0</v>
-      </c>
-      <c r="D33" s="15">
-        <v>0</v>
-      </c>
-      <c r="E33" s="15">
+      <c r="B33" s="12">
+        <v>0</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7">
         <v>152</v>
       </c>
-      <c r="F33" s="15">
-        <v>9</v>
-      </c>
-      <c r="G33" s="15">
-        <v>15</v>
-      </c>
-      <c r="H33" s="15">
-        <v>7</v>
-      </c>
-      <c r="I33" s="15">
-        <v>2</v>
-      </c>
-      <c r="J33" s="15" t="s">
+      <c r="F33" s="7">
+        <v>9</v>
+      </c>
+      <c r="G33" s="7">
+        <v>15</v>
+      </c>
+      <c r="H33" s="7">
+        <v>7</v>
+      </c>
+      <c r="I33" s="7">
+        <v>2</v>
+      </c>
+      <c r="J33" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K33" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="L33" s="15">
+      <c r="K33" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L33" s="7">
         <v>277</v>
       </c>
-      <c r="M33" s="15">
+      <c r="M33" s="7">
         <v>501</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="3">
+      <c r="A34" s="14"/>
+      <c r="B34" s="9">
         <v>0</v>
       </c>
       <c r="C34" s="3">
@@ -1989,8 +2066,8 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="3">
+      <c r="A35" s="14"/>
+      <c r="B35" s="9">
         <v>0</v>
       </c>
       <c r="C35" s="3">
@@ -2028,8 +2105,8 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="3">
+      <c r="A36" s="14"/>
+      <c r="B36" s="9">
         <v>0</v>
       </c>
       <c r="C36" s="3">
@@ -2067,8 +2144,8 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="3">
+      <c r="A37" s="14"/>
+      <c r="B37" s="9">
         <v>0</v>
       </c>
       <c r="C37" s="3">
@@ -2106,8 +2183,8 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="3">
+      <c r="A38" s="14"/>
+      <c r="B38" s="9">
         <v>0</v>
       </c>
       <c r="C38" s="3">
@@ -2145,8 +2222,8 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="3">
+      <c r="A39" s="14"/>
+      <c r="B39" s="9">
         <v>0</v>
       </c>
       <c r="C39" s="3">
@@ -2184,8 +2261,8 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="3">
+      <c r="A40" s="14"/>
+      <c r="B40" s="9">
         <v>0</v>
       </c>
       <c r="C40" s="3">
@@ -2223,8 +2300,8 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="3">
+      <c r="A41" s="14"/>
+      <c r="B41" s="9">
         <v>0</v>
       </c>
       <c r="C41" s="3">
@@ -2262,41 +2339,41 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13">
-        <v>0</v>
-      </c>
-      <c r="C42" s="13">
-        <v>0</v>
-      </c>
-      <c r="D42" s="13">
-        <v>0</v>
-      </c>
-      <c r="E42" s="13">
+      <c r="A42" s="15"/>
+      <c r="B42" s="11">
+        <v>0</v>
+      </c>
+      <c r="C42" s="6">
+        <v>0</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0</v>
+      </c>
+      <c r="E42" s="6">
         <v>152</v>
       </c>
-      <c r="F42" s="13">
-        <v>9</v>
-      </c>
-      <c r="G42" s="13">
-        <v>15</v>
-      </c>
-      <c r="H42" s="13">
-        <v>7</v>
-      </c>
-      <c r="I42" s="13">
-        <v>2</v>
-      </c>
-      <c r="J42" s="13" t="s">
+      <c r="F42" s="6">
+        <v>9</v>
+      </c>
+      <c r="G42" s="6">
+        <v>15</v>
+      </c>
+      <c r="H42" s="6">
+        <v>7</v>
+      </c>
+      <c r="I42" s="6">
+        <v>2</v>
+      </c>
+      <c r="J42" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K42" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="L42" s="13">
+      <c r="K42" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L42" s="6">
         <v>275</v>
       </c>
-      <c r="M42" s="13">
+      <c r="M42" s="6">
         <v>507</v>
       </c>
     </row>
